--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdrianLaptop\OneDrive - Delft University of Technology\TU Delft education\Year 3\SEAD\SEAD-code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\SEAD-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C31DD66-285C-4A41-985C-6FF8CFD7C4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8679AF09-450F-4CA3-B625-8D26E6142122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{041516EC-A5F9-4303-AC75-48FED8EF4ECB}"/>
+    <workbookView xWindow="-28920" yWindow="2505" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{041516EC-A5F9-4303-AC75-48FED8EF4ECB}"/>
   </bookViews>
   <sheets>
     <sheet name="data_for_weight" sheetId="1" r:id="rId1"/>
@@ -1327,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652BE953-68A8-4324-8A54-A0164763E493}">
   <dimension ref="A1:U112"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5198,7 +5198,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5406,7 +5406,7 @@
         <v>31.49</v>
       </c>
       <c r="C13" s="19">
-        <f t="shared" ref="C12:C18" si="1">(B13-$H$2)/$H$3</f>
+        <f t="shared" ref="C13:C18" si="1">(B13-$H$2)/$H$3</f>
         <v>3.6566725455614337</v>
       </c>
       <c r="D13" s="16"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25122"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\SEAD-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8679AF09-450F-4CA3-B625-8D26E6142122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="605" documentId="13_ncr:1_{8679AF09-450F-4CA3-B625-8D26E6142122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CF7794E-E66D-4496-B15F-8CEB4C77A71F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2505" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{041516EC-A5F9-4303-AC75-48FED8EF4ECB}"/>
+    <workbookView xWindow="-28920" yWindow="2505" windowWidth="29040" windowHeight="15720" xr2:uid="{041516EC-A5F9-4303-AC75-48FED8EF4ECB}"/>
   </bookViews>
   <sheets>
     <sheet name="data_for_weight" sheetId="1" r:id="rId1"/>
-    <sheet name="x_locations" sheetId="2" r:id="rId2"/>
+    <sheet name="stability_data" sheetId="3" r:id="rId2"/>
+    <sheet name="controlability_data" sheetId="4" r:id="rId3"/>
+    <sheet name="x_locations" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="358">
   <si>
     <t>item</t>
   </si>
@@ -53,6 +55,9 @@
     <t>description</t>
   </si>
   <si>
+    <t>documented in the report?</t>
+  </si>
+  <si>
     <t>conversion</t>
   </si>
   <si>
@@ -68,6 +73,12 @@
     <t>FAA standard person weight (incl carry-on baggage)</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>weights</t>
+  </si>
+  <si>
     <t>kg-lbs</t>
   </si>
   <si>
@@ -170,6 +181,18 @@
     <t>W_front_cargo</t>
   </si>
   <si>
+    <t>W_fuel_max</t>
+  </si>
+  <si>
+    <t>fuel weight at max payload</t>
+  </si>
+  <si>
+    <t>W_payload_cabin</t>
+  </si>
+  <si>
+    <t>combined passenger and cabin luggage weight</t>
+  </si>
+  <si>
     <t> </t>
   </si>
   <si>
@@ -185,6 +208,9 @@
     <t>stall speed</t>
   </si>
   <si>
+    <t>speeds</t>
+  </si>
+  <si>
     <t>V_cruise</t>
   </si>
   <si>
@@ -218,6 +244,12 @@
     <t>aspect ratio</t>
   </si>
   <si>
+    <t>not yet</t>
+  </si>
+  <si>
+    <t>wing+tail data</t>
+  </si>
+  <si>
     <t>A_h</t>
   </si>
   <si>
@@ -284,6 +316,9 @@
     <t>rad</t>
   </si>
   <si>
+    <t>deg</t>
+  </si>
+  <si>
     <t>wing sweep at 25% of chord</t>
   </si>
   <si>
@@ -296,9 +331,6 @@
     <t>sweep_ht</t>
   </si>
   <si>
-    <t>deg</t>
-  </si>
-  <si>
     <t>horizontal tail wing sweep at 25% of chord</t>
   </si>
   <si>
@@ -380,6 +412,153 @@
     <t>total area of control surfaces</t>
   </si>
   <si>
+    <t>N_mw</t>
+  </si>
+  <si>
+    <t>number of main wheels</t>
+  </si>
+  <si>
+    <t>quantities</t>
+  </si>
+  <si>
+    <t>N_nw</t>
+  </si>
+  <si>
+    <t>number of nose wheels</t>
+  </si>
+  <si>
+    <t>N_gear</t>
+  </si>
+  <si>
+    <t>number of gears</t>
+  </si>
+  <si>
+    <t>N_mss</t>
+  </si>
+  <si>
+    <t>number of main gear shocks</t>
+  </si>
+  <si>
+    <t>N_c</t>
+  </si>
+  <si>
+    <t>number of crew (2 pilots, 3 cabin crew)</t>
+  </si>
+  <si>
+    <t>N_gen</t>
+  </si>
+  <si>
+    <t>number of generatores (typically = N_en)</t>
+  </si>
+  <si>
+    <t>N_p</t>
+  </si>
+  <si>
+    <t>number of personnel onboard (crew and passengers)</t>
+  </si>
+  <si>
+    <t>N_t</t>
+  </si>
+  <si>
+    <t>number of fuel tanks - check later</t>
+  </si>
+  <si>
+    <t>N_f</t>
+  </si>
+  <si>
+    <t>number of functions performed by controls (4-7)</t>
+  </si>
+  <si>
+    <t>N_m</t>
+  </si>
+  <si>
+    <t>number of mechanical functions (0-2)</t>
+  </si>
+  <si>
+    <t>N_en</t>
+  </si>
+  <si>
+    <t>number of engines</t>
+  </si>
+  <si>
+    <t>F_w</t>
+  </si>
+  <si>
+    <t>fuselage width at horizontal tail intersection</t>
+  </si>
+  <si>
+    <t>other geometric data thigns</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>fuselage structural length (excludes radome, tail cap)</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>fuselage structural depth</t>
+  </si>
+  <si>
+    <t>S_f</t>
+  </si>
+  <si>
+    <t>fuselage wetted area</t>
+  </si>
+  <si>
+    <t>L_ec</t>
+  </si>
+  <si>
+    <t>length from engine front to cockpit</t>
+  </si>
+  <si>
+    <t>N_Lt</t>
+  </si>
+  <si>
+    <t>nacelle length</t>
+  </si>
+  <si>
+    <t>N_w</t>
+  </si>
+  <si>
+    <t>nacelle width</t>
+  </si>
+  <si>
+    <t>S_n</t>
+  </si>
+  <si>
+    <t>nacelle wetted area</t>
+  </si>
+  <si>
+    <t>V_pr</t>
+  </si>
+  <si>
+    <t>ft^3</t>
+  </si>
+  <si>
+    <t>m^3</t>
+  </si>
+  <si>
+    <t>volume of pressurized section</t>
+  </si>
+  <si>
+    <t>V_cargo_aft</t>
+  </si>
+  <si>
+    <t>volume of aft cargo hold</t>
+  </si>
+  <si>
+    <t>V_cargo_forward</t>
+  </si>
+  <si>
+    <t>L_plane</t>
+  </si>
+  <si>
+    <t>total length of plane</t>
+  </si>
+  <si>
     <t>L_m</t>
   </si>
   <si>
@@ -389,22 +568,163 @@
     <t>length of main landing gear</t>
   </si>
   <si>
-    <t>N_mw</t>
-  </si>
-  <si>
-    <t>number of main wheels</t>
+    <t>L_n</t>
+  </si>
+  <si>
+    <t>nose gear length</t>
+  </si>
+  <si>
+    <t>L_f</t>
+  </si>
+  <si>
+    <t>total fuselage length</t>
+  </si>
+  <si>
+    <t>x_seat_front</t>
+  </si>
+  <si>
+    <t>x_seat_aft</t>
+  </si>
+  <si>
+    <t>d_row</t>
+  </si>
+  <si>
+    <t>K_uht</t>
+  </si>
+  <si>
+    <t>1.0 for standart tail (not all moving)</t>
+  </si>
+  <si>
+    <t>coefficients raymer</t>
+  </si>
+  <si>
+    <t>K_door</t>
+  </si>
+  <si>
+    <t>K_ws</t>
+  </si>
+  <si>
+    <t>K_r</t>
+  </si>
+  <si>
+    <t>1 for jet engines</t>
+  </si>
+  <si>
+    <t>K_tp</t>
+  </si>
+  <si>
+    <t>K_p</t>
+  </si>
+  <si>
+    <t>1.0 for engine without propeller</t>
+  </si>
+  <si>
+    <t>K_tr</t>
+  </si>
+  <si>
+    <t>1.0 for no thrust reversers</t>
   </si>
   <si>
     <t>K_np</t>
   </si>
   <si>
-    <t>kneeling landing gear? (nose)</t>
-  </si>
-  <si>
-    <t>N_nw</t>
-  </si>
-  <si>
-    <t>number of nose wheels</t>
+    <t>1 for kneeling gear? main gear</t>
+  </si>
+  <si>
+    <t>K_Lg</t>
+  </si>
+  <si>
+    <t>wing mounted gear = 1.0</t>
+  </si>
+  <si>
+    <t>K_mp</t>
+  </si>
+  <si>
+    <t>K_ng</t>
+  </si>
+  <si>
+    <t>pylon-mounted nacelle 1.0 if not</t>
+  </si>
+  <si>
+    <t>N_z</t>
+  </si>
+  <si>
+    <t>ultimate load factor (1.5 x limit load factor)</t>
+  </si>
+  <si>
+    <t>misc</t>
+  </si>
+  <si>
+    <t>rho_cargo</t>
+  </si>
+  <si>
+    <t>lbs/ft^3</t>
+  </si>
+  <si>
+    <t>kg/m^3</t>
+  </si>
+  <si>
+    <t>cargo density</t>
+  </si>
+  <si>
+    <t>H_t/H_v</t>
+  </si>
+  <si>
+    <t>1 for T tail</t>
+  </si>
+  <si>
+    <t>V_t</t>
+  </si>
+  <si>
+    <t>gal</t>
+  </si>
+  <si>
+    <t>total fuel volume</t>
+  </si>
+  <si>
+    <t>V_i</t>
+  </si>
+  <si>
+    <t>integral fuel tank</t>
+  </si>
+  <si>
+    <t>V_p</t>
+  </si>
+  <si>
+    <t>self sealing "protected" tanks volume</t>
+  </si>
+  <si>
+    <t>I_y</t>
+  </si>
+  <si>
+    <t>lb.ft^2</t>
+  </si>
+  <si>
+    <t>kg.m^2</t>
+  </si>
+  <si>
+    <t>yawing moment of inertia (see chapter.16 of raymer)</t>
+  </si>
+  <si>
+    <t>R_kva</t>
+  </si>
+  <si>
+    <t>kv.A</t>
+  </si>
+  <si>
+    <t>L_a</t>
+  </si>
+  <si>
+    <t>electrical routing distance, generators to aviaoncs to cockpit</t>
+  </si>
+  <si>
+    <t>R_z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nondim radii of gyration </t>
+  </si>
+  <si>
+    <t>R_y</t>
   </si>
   <si>
     <t>N_l</t>
@@ -413,291 +733,303 @@
     <t>ultimate landing load factor (N_gear * 1.5)</t>
   </si>
   <si>
-    <t>N_gear</t>
-  </si>
-  <si>
-    <t>number of gears</t>
-  </si>
-  <si>
-    <t>N_mss</t>
-  </si>
-  <si>
-    <t>number of main gear shocks</t>
-  </si>
-  <si>
-    <t>K_Lg</t>
-  </si>
-  <si>
-    <t>wing mounted gear = 1.0</t>
-  </si>
-  <si>
-    <t>K_mp</t>
-  </si>
-  <si>
-    <t>1 for kneeling gear? main gear</t>
-  </si>
-  <si>
-    <t>L_n</t>
-  </si>
-  <si>
-    <t>nose gear length</t>
-  </si>
-  <si>
-    <t>F_w</t>
-  </si>
-  <si>
-    <t>fuselage width at horizontal tail intersection</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>fuselage structural length (excludes radome, tail cap)</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>fuselage structural depth</t>
-  </si>
-  <si>
-    <t>S_f</t>
-  </si>
-  <si>
-    <t>fuselage wetted area</t>
-  </si>
-  <si>
-    <t>L_ec</t>
-  </si>
-  <si>
-    <t>length from engine front to cockpit</t>
-  </si>
-  <si>
-    <t>N_Lt</t>
-  </si>
-  <si>
-    <t>nacelle length</t>
-  </si>
-  <si>
-    <t>N_w</t>
-  </si>
-  <si>
-    <t>nacelle width</t>
-  </si>
-  <si>
-    <t>S_n</t>
-  </si>
-  <si>
-    <t>nacelle wetted area</t>
-  </si>
-  <si>
-    <t>V_pr</t>
-  </si>
-  <si>
-    <t>ft^3</t>
-  </si>
-  <si>
-    <t>m^3</t>
-  </si>
-  <si>
-    <t>volume of pressurized section</t>
-  </si>
-  <si>
-    <t>V_cargo_aft</t>
-  </si>
-  <si>
-    <t>volume of aft cargo hold</t>
-  </si>
-  <si>
-    <t>V_cargo_forward</t>
-  </si>
-  <si>
-    <t>K_ng</t>
-  </si>
-  <si>
-    <t>pylon-mounted nacelle 1.0 if not</t>
-  </si>
-  <si>
-    <t>L_plane</t>
-  </si>
-  <si>
-    <t>total length of plane</t>
-  </si>
-  <si>
-    <t>K_uht</t>
-  </si>
-  <si>
-    <t>1.0 for standart tail (not all moving)</t>
-  </si>
-  <si>
     <t>K_z</t>
   </si>
   <si>
     <t>aircraft yawing radius of gyration, mas o menos L_t</t>
   </si>
   <si>
-    <t>K_door</t>
-  </si>
-  <si>
-    <t>K_ws</t>
-  </si>
-  <si>
-    <t>K_r</t>
-  </si>
-  <si>
-    <t>1 for jet engines</t>
-  </si>
-  <si>
-    <t>K_tp</t>
-  </si>
-  <si>
     <t>K_y</t>
   </si>
   <si>
     <t>aircraft pitching radius of gyration, mas o menos 0.3* L_t</t>
   </si>
   <si>
-    <t>K_p</t>
-  </si>
-  <si>
-    <t>1.0 for engine without propeller</t>
-  </si>
-  <si>
-    <t>K_tr</t>
-  </si>
-  <si>
-    <t>1.0 for no thrust reversers</t>
-  </si>
-  <si>
-    <t>N_z</t>
-  </si>
-  <si>
-    <t>ultimate load factor (1.5 x limit load factor)</t>
-  </si>
-  <si>
-    <t>rho_cargo</t>
-  </si>
-  <si>
-    <t>lbs/ft^3</t>
-  </si>
-  <si>
-    <t>kg/m^3</t>
-  </si>
-  <si>
-    <t>cargo density</t>
-  </si>
-  <si>
-    <t>H_t/H_v</t>
-  </si>
-  <si>
-    <t>1 for T tail</t>
-  </si>
-  <si>
-    <t>N_en</t>
-  </si>
-  <si>
-    <t>number of engines</t>
-  </si>
-  <si>
-    <t>V_t</t>
-  </si>
-  <si>
-    <t>gal</t>
-  </si>
-  <si>
-    <t>total fuel volume</t>
-  </si>
-  <si>
-    <t>V_i</t>
-  </si>
-  <si>
-    <t>integral fuel tank</t>
-  </si>
-  <si>
-    <t>V_p</t>
-  </si>
-  <si>
-    <t>self sealing "protected" tanks volume</t>
-  </si>
-  <si>
-    <t>N_f</t>
-  </si>
-  <si>
-    <t>number of functions performed by controls (4-7)</t>
-  </si>
-  <si>
-    <t>N_m</t>
-  </si>
-  <si>
-    <t>number of mechanical functions (0-2)</t>
-  </si>
-  <si>
-    <t>I_y</t>
-  </si>
-  <si>
-    <t>lb.ft^2</t>
-  </si>
-  <si>
-    <t>kg.m^2</t>
-  </si>
-  <si>
-    <t>yawing moment of inertia (see chapter.16 of raymer)</t>
-  </si>
-  <si>
-    <t>N_c</t>
-  </si>
-  <si>
-    <t>number of crew (2 pilots, 3 cabin crew)</t>
-  </si>
-  <si>
-    <t>L_f</t>
-  </si>
-  <si>
-    <t>total fuselage length</t>
-  </si>
-  <si>
-    <t>R_kva</t>
-  </si>
-  <si>
-    <t>kv.A</t>
-  </si>
-  <si>
-    <t>L_a</t>
-  </si>
-  <si>
-    <t>electrical routing distance, generators to aviaoncs to cockpit</t>
-  </si>
-  <si>
-    <t>N_gen</t>
-  </si>
-  <si>
-    <t>number of generatores (typically = N_en)</t>
-  </si>
-  <si>
-    <t>N_p</t>
-  </si>
-  <si>
-    <t>number of personnel onboard (crew and passengers)</t>
-  </si>
-  <si>
-    <t>N_t</t>
-  </si>
-  <si>
-    <t>number of fuel tanks - check later</t>
-  </si>
-  <si>
-    <t>R_z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nondim radii of gyration </t>
-  </si>
-  <si>
-    <t>R_y</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>x-bar_ac</t>
+  </si>
+  <si>
+    <t>C_L-alpha_h</t>
+  </si>
+  <si>
+    <t>C_L-alpha_A-h</t>
+  </si>
+  <si>
+    <t>de/da</t>
+  </si>
+  <si>
+    <t>Downwash</t>
+  </si>
+  <si>
+    <t>S_h</t>
+  </si>
+  <si>
+    <t>l_h</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>c-bar</t>
+  </si>
+  <si>
+    <t>V_h/V</t>
+  </si>
+  <si>
+    <t>slide 37, lec 7</t>
+  </si>
+  <si>
+    <t>speed ratio tail</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>sqrt(1-m^2) at m_cruise (compressibility correction)</t>
+  </si>
+  <si>
+    <t>M_curise</t>
+  </si>
+  <si>
+    <t>Beta.A</t>
+  </si>
+  <si>
+    <t>slide 31, lec 7</t>
+  </si>
+  <si>
+    <t>tan of sweep</t>
+  </si>
+  <si>
+    <t>Lambda_Beta</t>
+  </si>
+  <si>
+    <t>x_ac/c-bar_wing</t>
+  </si>
+  <si>
+    <t>a graph, slide 31, lec 7</t>
+  </si>
+  <si>
+    <t>b_f</t>
+  </si>
+  <si>
+    <t>slide 34, lec 7</t>
+  </si>
+  <si>
+    <t>width of fus</t>
+  </si>
+  <si>
+    <t>h_f</t>
+  </si>
+  <si>
+    <t>height of fus</t>
+  </si>
+  <si>
+    <t>l_fn</t>
+  </si>
+  <si>
+    <t>length nose to start of wing</t>
+  </si>
+  <si>
+    <t>c_g</t>
+  </si>
+  <si>
+    <t>mean geom chord</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>k_n</t>
+  </si>
+  <si>
+    <t>slides lec 7 slide 35</t>
+  </si>
+  <si>
+    <t>factor for ac shift due to nacelles (for each)</t>
+  </si>
+  <si>
+    <t>b_n</t>
+  </si>
+  <si>
+    <t>width of nacelle</t>
+  </si>
+  <si>
+    <t>l_n</t>
+  </si>
+  <si>
+    <t>c/4 mac to end of engine</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>slide 38 lec 7</t>
+  </si>
+  <si>
+    <t>airfoil efficiency</t>
+  </si>
+  <si>
+    <t>S_net</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>slide 41 lec 7</t>
+  </si>
+  <si>
+    <t>m_tv</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>C_m_ac</t>
+  </si>
+  <si>
+    <t>moment around aerodynamic centre</t>
+  </si>
+  <si>
+    <t>lecture 8</t>
+  </si>
+  <si>
+    <t>C_L_h</t>
+  </si>
+  <si>
+    <t>C_L_A-h</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>stability margin</t>
+  </si>
+  <si>
+    <t>C_m_ac_w</t>
+  </si>
+  <si>
+    <t>C_m-0-airfoil</t>
+  </si>
+  <si>
+    <t>http://airfoiltools.com/airfoil/details?airfoil=nasasc2-0714-il#polars</t>
+  </si>
+  <si>
+    <t>Re_approach</t>
+  </si>
+  <si>
+    <t>Re_stall</t>
+  </si>
+  <si>
+    <t>M_approach</t>
+  </si>
+  <si>
+    <t>M_stall</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>c_bar</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>m^2/s</t>
+  </si>
+  <si>
+    <t>kinematic viscocity</t>
+  </si>
+  <si>
+    <t>C_L_alpha-0</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>the lift coefficient of the flapped wing at zero angle of attack</t>
+  </si>
+  <si>
+    <t>Swf_TE</t>
+  </si>
+  <si>
+    <t>wing area of trailing edge flaps</t>
+  </si>
+  <si>
+    <t>Swf_LE</t>
+  </si>
+  <si>
+    <t>wing area of leading edge flaps</t>
+  </si>
+  <si>
+    <t>delta_Clmax_TE</t>
+  </si>
+  <si>
+    <t>slide 36 2nd year ADSEE</t>
+  </si>
+  <si>
+    <t>slotted simple flap</t>
+  </si>
+  <si>
+    <t>delta_CLmax_LE</t>
+  </si>
+  <si>
+    <t>LE flap</t>
+  </si>
+  <si>
+    <t>delta_alpha0l_airfoil</t>
+  </si>
+  <si>
+    <t>slide 38 2nd year ADSEE</t>
+  </si>
+  <si>
+    <t>sweep of hinge line (same as c/4 sweep (estimate))</t>
+  </si>
+  <si>
+    <t>alpha_L=0</t>
+  </si>
+  <si>
+    <t>slides</t>
+  </si>
+  <si>
+    <t>beta_stall</t>
+  </si>
+  <si>
     <t>x_cg (from the nose) [m]</t>
   </si>
   <si>
@@ -771,13 +1103,22 @@
   </si>
   <si>
     <t>W_seats</t>
+  </si>
+  <si>
+    <t>front_seat</t>
+  </si>
+  <si>
+    <t>aft_seat</t>
+  </si>
+  <si>
+    <t>W_fuel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -825,8 +1166,22 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -892,8 +1247,32 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -929,49 +1308,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA6A6A6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFA6A6A6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA6A6A6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA6A6A6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA6A6A6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFA6A6A6"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFA6A6A6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA6A6A6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFA6A6A6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA6A6A6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -979,8 +1317,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -991,32 +1330,61 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
     <cellStyle name="20% - Accent4" xfId="4" builtinId="42"/>
     <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
     <cellStyle name="20% - Accent6" xfId="6" builtinId="50"/>
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="Ongeldig" xfId="1" builtinId="27"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFDEFB"/>
+      <color rgb="FFDDEBF7"/>
+      <color rgb="FFEEE6FF"/>
+      <color rgb="FFFFF2CC"/>
+      <color rgb="FFE2EFDA"/>
+      <color rgb="FFFCE4D6"/>
+      <color rgb="FFFFD9DD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1026,6 +1394,102 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E94EA9-155B-4823-B0C6-4F4B5926B78E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16030575" y="1428750"/>
+          <a:ext cx="6191250" cy="3200400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8E127F-BD12-4209-89F1-3642C85662E5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{10E94EA9-155B-4823-B0C6-4F4B5926B78E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572375" y="876300"/>
+          <a:ext cx="4572000" cy="2495550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1325,27 +1789,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652BE953-68A8-4324-8A54-A0164763E493}">
-  <dimension ref="A1:U112"/>
+  <dimension ref="A1:V128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85:G95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="14.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="55.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
-    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="55.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1364,15 +1829,16 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="2"/>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -1382,36 +1848,41 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" ht="15">
       <c r="A2" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7">
-        <v>195</v>
+        <f>D2*$L$2</f>
+        <v>214.97778728799997</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="7">
-        <f>B2*0.45359237</f>
-        <v>88.450512150000009</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="12">
+        <v>97.5124</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="18">
+      <c r="G2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="16">
         <v>2.2046199999999998</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1421,36 +1892,38 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" ht="15">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="7">
-        <f>D3*$I$2</f>
+        <f>D3*$L$2</f>
         <v>81500.392159999989</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="7">
         <v>36968</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="18">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="K3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="16">
         <v>39.370100000000001</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1460,37 +1933,39 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" ht="15">
       <c r="A4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="7">
         <f>B5</f>
         <v>91800.376799999998</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
         <f>D5</f>
         <v>41640</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="18">
+        <v>19</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="K4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="16">
         <v>32.173999999999999</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1500,28 +1975,31 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" ht="15">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" s="7">
-        <f>D5*$I$2</f>
+        <f>D5*$L$2</f>
         <v>91800.376799999998</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7">
         <v>41640</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1536,28 +2014,31 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" ht="15">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" s="7">
-        <f>D6*$I$2</f>
+        <f>D6*$L$2</f>
         <v>92300.825539999991</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7">
         <v>41867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1572,28 +2053,31 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" ht="15">
       <c r="A7" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7">
-        <f>D7*$I$2</f>
+        <f>D7*$L$2</f>
         <v>50999.474459999998</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
         <v>23133</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1608,28 +2092,32 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" ht="15">
       <c r="A8" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="7">
-        <f>D8*$I$2</f>
-        <v>77499.006859999994</v>
+        <f>D8*$L$2</f>
+        <v>74833.320261185188</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7">
-        <v>35153</v>
+        <f>D9+D10</f>
+        <v>33943.86346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1644,27 +2132,30 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" ht="15">
       <c r="A9" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7">
         <v>26380</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7">
         <v>11966</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1679,28 +2170,31 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" ht="15">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B10" s="7">
-        <f>D10*$I$2</f>
-        <v>51120.728559999996</v>
+        <f>D10*$L$2</f>
+        <v>48452.837341185194</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>23188</v>
+        <v>21977.86346</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1715,28 +2209,31 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" ht="15">
       <c r="A11" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B11" s="7">
         <v>2425</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
         <f>B11*0.45359237</f>
         <v>1099.9614972500001</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1751,28 +2248,31 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" ht="15">
       <c r="A12" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B12" s="7">
         <v>1200</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
         <f>B12*0.45359237</f>
         <v>544.31084399999997</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1787,28 +2287,31 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" ht="15">
       <c r="A13" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B13" s="7">
         <v>7180</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
         <f>B13*0.45359237</f>
         <v>3256.7932166000001</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1823,29 +2326,32 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" ht="15">
       <c r="A14" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" s="7">
-        <f>2.331*(B11^0.901)*B84*B85</f>
+        <f>2.331*(B11^0.901)*B90*B91</f>
         <v>2613.1693393078172</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D14" s="7">
         <f>B14*0.45359237</f>
         <v>1185.313673827967</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1860,27 +2366,30 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" ht="15">
       <c r="A15" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B15" s="7">
         <v>238</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D15" s="7">
         <v>108</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1895,27 +2404,30 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="13">
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" ht="15">
+      <c r="A16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="12">
         <v>26.455439999999999</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="12">
         <v>12</v>
       </c>
-      <c r="D16" s="13">
-        <v>12</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="2"/>
+      <c r="E16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1930,26 +2442,29 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="13">
-        <f>D17*I2</f>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="1:22" ht="15">
+      <c r="A17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="12">
+        <f>D17*L2</f>
         <v>3575.8715937999996</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="C17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="12">
         <v>1621.99</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="2"/>
+      <c r="E17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1964,26 +2479,29 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="13">
-        <f>D18*I2</f>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="1:22" ht="15">
+      <c r="A18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="12">
+        <f>D18*L2</f>
         <v>1306.8325973999999</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="C18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="12">
         <v>592.77</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="2"/>
+      <c r="E18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1998,17 +2516,32 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="1:22" ht="15">
+      <c r="A19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="12">
+        <f>D19*L2</f>
+        <v>16967.056538814799</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="12">
+        <f>D5-D10-D9</f>
+        <v>7696.1365399999995</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="F19" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2023,29 +2556,32 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="3">
-        <f>B23/1.3</f>
-        <v>96.92307692307692</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="3">
-        <f>D23/1.3</f>
-        <v>49.861538418461542</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="2"/>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="1:22" ht="15">
+      <c r="A20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="12">
+        <f>D20*L2</f>
+        <v>21497.778728799996</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="12">
+        <f>(D60-D58)*D2</f>
+        <v>9751.24</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2060,28 +2596,18 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="3">
-        <v>447</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="3">
-        <f>B21*0.514444444</f>
-        <v>229.95666646800001</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="2"/>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="1:22" ht="15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="14"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2096,30 +2622,36 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="1:22" ht="15">
       <c r="A22" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="3">
-        <v>470</v>
+        <f>B25/1.3</f>
+        <v>96.92307692307692</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D22" s="3">
-        <f>B22*0.514444444</f>
-        <v>241.78888868000001</v>
+        <f>D25/1.3</f>
+        <v>49.861538418461542</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>11</v>
+      </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -2132,28 +2664,31 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="1:22" ht="15">
       <c r="A23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="3">
+        <v>447</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B23" s="3">
-        <v>126</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D23" s="3">
         <f>B23*0.514444444</f>
-        <v>64.819999944000003</v>
+        <v>229.95666646800001</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>11</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2168,27 +2703,31 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="1:22" ht="15">
       <c r="A24" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B24" s="3">
-        <v>0.78</v>
+        <v>470</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D24" s="3">
-        <v>0.78</v>
+        <f>B24*0.514444444</f>
+        <v>241.78888868000001</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>11</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2203,15 +2742,31 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="2"/>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="1:22" ht="15">
+      <c r="A25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="3">
+        <v>126</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="3">
+        <f>B25*0.514444444</f>
+        <v>64.819999944000003</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>11</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2226,29 +2781,30 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="4">
-        <f>B29^2/B32</f>
-        <v>8.8495787569453412</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="4">
-        <f>(D29^2)/D32</f>
-        <v>8.849578756945343</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="2"/>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="1:22" ht="15">
+      <c r="A26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>11</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2263,29 +2819,16 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="4">
-        <f>(B30^2)/B33</f>
-        <v>4.5780001972708106</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="4">
-        <f>(D30^2)/D33</f>
-        <v>4.5840100565681956</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="2"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="1:22" ht="15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2300,31 +2843,36 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="1:22" ht="15">
       <c r="A28" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B28" s="4">
-        <f>(B31*2)/B34</f>
-        <v>0.16489356865395538</v>
+        <f>B31^2/B34</f>
+        <v>8.8495787569453412</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D28" s="4">
-        <f>B28</f>
-        <v>0.16489356865395538</v>
+        <f>(D31^2)/D34</f>
+        <v>8.849578756945343</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="22" t="s">
+        <v>69</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -2337,28 +2885,32 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="1:22" ht="15">
       <c r="A29" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B29" s="4">
-        <f>D29*3.2808399</f>
-        <v>85.859580183000006</v>
+        <f>(B32^2)/B35</f>
+        <v>4.5780001972708106</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="4">
-        <v>26.17</v>
+        <f>(D32^2)/D35</f>
+        <v>4.5840100565681956</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2373,27 +2925,32 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V29" s="2"/>
+    </row>
+    <row r="30" spans="1:22" ht="15">
       <c r="A30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="4">
+        <f>(B33*2)/B36</f>
+        <v>0.16489356865395538</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="4">
+        <f>B30</f>
+        <v>0.16489356865395538</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="4">
-        <v>28</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="4">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -2408,28 +2965,31 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="1:22" ht="15">
       <c r="A31" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B31" s="4">
         <f>D31*3.2808399</f>
-        <v>10.0459317738</v>
+        <v>85.859580183000006</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D31" s="4">
-        <v>3.0619999999999998</v>
+        <v>26.17</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2444,29 +3004,30 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="1:22" ht="15">
       <c r="A32" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B32" s="4">
-        <f>D32*3.2808399*3.2808399</f>
-        <v>833.01902968154332</v>
+        <v>28</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D32" s="4">
-        <f>77.39</f>
-        <v>77.39</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2481,28 +3042,31 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V32" s="2"/>
+    </row>
+    <row r="33" spans="1:22" ht="15">
       <c r="A33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="4">
+        <f>D33*3.2808399</f>
+        <v>10.0459317738</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="4">
-        <f>D33*3.2808399^2</f>
-        <v>171.2538152504633</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="4">
-        <v>15.91</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="F33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -2517,28 +3081,32 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:22" ht="15">
       <c r="A34" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B34" s="4">
-        <f>D34*3.2808399^2</f>
-        <v>121.84746628757037</v>
+        <f>D34*3.2808399*3.2808399</f>
+        <v>833.01902968154332</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D34" s="4">
-        <v>11.32</v>
+        <f>77.39</f>
+        <v>77.39</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2553,29 +3121,31 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:22" ht="15">
       <c r="A35" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B35" s="4">
-        <f>26.9*(1/180)*PI()</f>
-        <v>0.46949356878647464</v>
+        <f>D35*3.2808399^2</f>
+        <v>171.2538152504633</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D35" s="4">
-        <f>26.9*(1/180)*PI()</f>
-        <v>0.46949356878647464</v>
+        <v>15.91</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2590,29 +3160,31 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:22" ht="15">
       <c r="A36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="4">
+        <f>D36*3.2808399^2</f>
+        <v>121.84746628757037</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="4">
-        <f>B41/B40</f>
-        <v>0.15944103612815266</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="D36" s="4">
-        <f>D41/D40</f>
-        <v>0.15944103612815269</v>
+        <v>11.32</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G36" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2627,28 +3199,32 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:22" ht="15">
       <c r="A37" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B37" s="4">
-        <f>D37*PI()/180</f>
-        <v>0.49916416607037828</v>
+        <f>26.9*(1/180)*PI()</f>
+        <v>0.46949356878647464</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D37" s="4">
-        <v>28.6</v>
+        <f>26.9</f>
+        <v>26.9</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -2663,28 +3239,32 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:22" ht="15">
       <c r="A38" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B38" s="4">
-        <f>D38*PI()/180</f>
-        <v>0.67718774977379981</v>
+        <f>B43/B42</f>
+        <v>0.15944103612815266</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D38" s="4">
-        <v>38.799999999999997</v>
+        <f>D43/D42</f>
+        <v>0.15944103612815269</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G38" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -2699,29 +3279,31 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:22" ht="15">
       <c r="A39" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B39" s="4">
-        <f t="shared" ref="B39:B46" si="0">D39*3.2808399</f>
-        <v>2.8379265135000002</v>
+        <f>D39*PI()/180</f>
+        <v>0.49916416607037828</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D39" s="4">
-        <f>0.5*1.73</f>
-        <v>0.86499999999999999</v>
+        <v>28.6</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G39" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -2736,28 +3318,31 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V39" s="2"/>
+    </row>
+    <row r="40" spans="1:22" ht="15">
       <c r="A40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="4">
+        <f>D40*PI()/180</f>
+        <v>0.67718774977379981</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="4">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="4">
-        <f t="shared" si="0"/>
-        <v>19.251968533200003</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="4">
-        <v>5.8680000000000003</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="F40" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G40" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -2772,28 +3357,32 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V40" s="2"/>
+    </row>
+    <row r="41" spans="1:22" ht="15">
       <c r="A41" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B41" s="4">
-        <f t="shared" si="0"/>
-        <v>3.06955381044</v>
+        <f t="shared" ref="B41:B48" si="0">D41*3.2808399</f>
+        <v>2.8379265135000002</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D41" s="4">
-        <v>0.93559999999999999</v>
+        <f>0.5*1.73</f>
+        <v>0.86499999999999999</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G41" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -2808,28 +3397,31 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V41" s="2"/>
+    </row>
+    <row r="42" spans="1:22" ht="15">
       <c r="A42" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B42" s="4">
         <f t="shared" si="0"/>
-        <v>8.9304462078000011</v>
+        <v>19.251968533200003</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D42" s="4">
-        <v>2.722</v>
+        <v>5.8680000000000003</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G42" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -2844,28 +3436,31 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V42" s="2"/>
+    </row>
+    <row r="43" spans="1:22" ht="15">
       <c r="A43" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B43" s="4">
         <f t="shared" si="0"/>
-        <v>3.3497375378999998</v>
+        <v>3.06955381044</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D43" s="4">
-        <v>1.0209999999999999</v>
+        <v>0.93559999999999999</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G43" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -2880,28 +3475,31 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V43" s="2"/>
+    </row>
+    <row r="44" spans="1:22" ht="15">
       <c r="A44" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B44" s="4">
         <f t="shared" si="0"/>
-        <v>11.161417339800002</v>
+        <v>8.9304462078000011</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D44" s="4">
-        <v>3.4020000000000001</v>
+        <v>2.722</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -2916,28 +3514,31 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V44" s="2"/>
+    </row>
+    <row r="45" spans="1:22" ht="15">
       <c r="A45" s="4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B45" s="4">
         <f t="shared" si="0"/>
-        <v>6.6961942359000002</v>
+        <v>3.3497375378999998</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D45" s="4">
-        <v>2.0409999999999999</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G45" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -2952,28 +3553,31 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V45" s="2"/>
+    </row>
+    <row r="46" spans="1:22" ht="15">
       <c r="A46" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B46" s="4">
         <f t="shared" si="0"/>
-        <v>62.500000095000004</v>
+        <v>11.161417339800002</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D46" s="4">
-        <v>19.05</v>
+        <v>3.4020000000000001</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G46" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -2988,29 +3592,31 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V46" s="2"/>
+    </row>
+    <row r="47" spans="1:22" ht="15">
       <c r="A47" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B47" s="4">
-        <f>D47*3.2808399^2</f>
-        <v>41.118137916830278</v>
+        <f t="shared" si="0"/>
+        <v>6.6961942359000002</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D47" s="4">
-        <f>1.91*2</f>
-        <v>3.82</v>
+        <v>2.0409999999999999</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G47" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -3025,28 +3631,31 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V47" s="2"/>
+    </row>
+    <row r="48" spans="1:22" ht="15">
       <c r="A48" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B48" s="4">
-        <f>D48*(3.2808399^2)</f>
-        <v>53.711913142665736</v>
+        <f t="shared" si="0"/>
+        <v>62.500000095000004</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D48" s="4">
-        <v>4.99</v>
+        <v>19.05</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G48" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -3061,28 +3670,32 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V48" s="2"/>
+    </row>
+    <row r="49" spans="1:22" ht="15">
       <c r="A49" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B49" s="4">
-        <f>D49*3.2808399</f>
-        <v>55.511811108000011</v>
+        <f>D49*3.2808399^2</f>
+        <v>41.118137916830278</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D49" s="4">
-        <v>16.920000000000002</v>
+        <f>1.91*2</f>
+        <v>3.82</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G49" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -3097,29 +3710,31 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V49" s="2"/>
+    </row>
+    <row r="50" spans="1:22" ht="15">
       <c r="A50" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B50" s="4">
-        <f>D50*3.2808399^2</f>
-        <v>113.05335145038441</v>
+        <f>D50*(3.2808399^2)</f>
+        <v>53.711913142665736</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D50" s="4">
-        <f>2*1.91+4.99+1.693</f>
-        <v>10.503</v>
+        <v>4.99</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G50" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -3134,15 +3749,31 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="2"/>
+      <c r="V50" s="2"/>
+    </row>
+    <row r="51" spans="1:22" ht="15">
+      <c r="A51" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="4">
+        <f>D51*3.2808399</f>
+        <v>55.511811108000011</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="4">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -3157,28 +3788,32 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" s="5">
-        <f>D52*I3</f>
-        <v>59.055149999999998</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G52" s="2"/>
+      <c r="V51" s="2"/>
+    </row>
+    <row r="52" spans="1:22" ht="15">
+      <c r="A52" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="4">
+        <f>D52*3.2808399^2</f>
+        <v>113.05335145038441</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="4">
+        <f>2*1.91+4.99+1.693</f>
+        <v>10.503</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -3193,27 +3828,16 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="5">
-        <v>4</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="5">
-        <v>4</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G53" s="2"/>
+      <c r="V52" s="2"/>
+    </row>
+    <row r="53" spans="1:22" ht="15">
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -3228,29 +3852,34 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V53" s="2"/>
+    </row>
+    <row r="54" spans="1:22" ht="15">
       <c r="A54" s="5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B54" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D54" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G54" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+      <c r="I54" s="25" t="s">
+        <v>126</v>
+      </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -3263,27 +3892,30 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V54" s="2"/>
+    </row>
+    <row r="55" spans="1:22" ht="15">
       <c r="A55" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B55" s="5">
         <v>2</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D55" s="5">
         <v>2</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G55" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -3298,29 +3930,30 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V55" s="2"/>
+    </row>
+    <row r="56" spans="1:22" ht="15">
       <c r="A56" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B56" s="5">
-        <f>B57*1.5</f>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D56" s="5">
-        <f>D57*1.5</f>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G56" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -3335,27 +3968,30 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>125</v>
+      <c r="V56" s="2"/>
+    </row>
+    <row r="57" spans="1:22" ht="15">
+      <c r="A57" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="B57" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D57" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G57" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -3370,27 +4006,32 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B58" s="5">
-        <v>2</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D58" s="5">
-        <v>2</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G58" s="2"/>
+      <c r="V57" s="2"/>
+    </row>
+    <row r="58" spans="1:22" ht="15">
+      <c r="A58" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" s="25">
+        <f>2+3</f>
+        <v>5</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="25">
+        <f>2+3</f>
+        <v>5</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -3405,27 +4046,30 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="5">
-        <v>1</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" s="5">
-        <v>1</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G59" s="2"/>
+      <c r="V58" s="2"/>
+    </row>
+    <row r="59" spans="1:22" ht="15">
+      <c r="A59" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="25">
+        <v>2</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="25">
+        <v>2</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -3440,27 +4084,32 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" s="5">
-        <v>1</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" s="5">
-        <v>1</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G60" s="2"/>
+      <c r="V59" s="2"/>
+    </row>
+    <row r="60" spans="1:22" ht="15">
+      <c r="A60" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="25">
+        <f>B58+100</f>
+        <v>105</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="25">
+        <f>D58+100</f>
+        <v>105</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -3475,28 +4124,30 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B61" s="5">
-        <f>D61*I3</f>
-        <v>43.53151957</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D61" s="5">
-        <v>1.1056999999999999</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G61" s="2"/>
+      <c r="V60" s="2"/>
+    </row>
+    <row r="61" spans="1:22" ht="15">
+      <c r="A61" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="25">
+        <v>3</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="25">
+        <v>3</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -3511,15 +4162,30 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="2"/>
+      <c r="V61" s="2"/>
+    </row>
+    <row r="62" spans="1:22" ht="15">
+      <c r="A62" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="25">
+        <v>7</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="25">
+        <v>7</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -3534,28 +4200,30 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B63" s="6">
-        <f>D63*3.2808399</f>
-        <v>2.2322834679600003</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="6">
-        <v>0.6804</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G63" s="2"/>
+      <c r="V62" s="2"/>
+    </row>
+    <row r="63" spans="1:22" ht="15">
+      <c r="A63" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="25">
+        <v>2</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="25">
+        <v>2</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -3570,27 +4238,30 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B64" s="6">
-        <v>93.9</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" s="6">
-        <v>28.6</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G64" s="2"/>
+      <c r="V63" s="2"/>
+    </row>
+    <row r="64" spans="1:22" ht="15">
+      <c r="A64" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="25">
+        <v>2</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="25">
+        <v>2</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -3605,28 +4276,16 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B65" s="6">
-        <f>D65*3.2808399</f>
-        <v>8.8254593309999994</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" s="6">
-        <v>2.69</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G65" s="2"/>
+      <c r="V64" s="2"/>
+    </row>
+    <row r="65" spans="1:22" ht="15">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -3641,31 +4300,35 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V65" s="2"/>
+    </row>
+    <row r="66" spans="1:22" ht="15">
       <c r="A66" s="6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B66" s="6">
-        <f>D66*3.2808399^2</f>
-        <v>3099.7909312274305</v>
+        <f>D66*3.2808399</f>
+        <v>2.2322834679600003</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D66" s="6">
-        <f>261.8*1.1</f>
-        <v>287.98</v>
+        <v>0.6804</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G66" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="G66" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
+      <c r="I66" s="31" t="s">
+        <v>149</v>
+      </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -3678,29 +4341,30 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V66" s="2"/>
+    </row>
+    <row r="67" spans="1:22" ht="15">
       <c r="A67" s="6" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B67" s="6">
-        <f>D67*3.2808399</f>
-        <v>78.894357075300007</v>
+        <v>93.9</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D67" s="6">
-        <f>1.73*13.9</f>
-        <v>24.047000000000001</v>
+        <v>28.6</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G67" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -3715,28 +4379,31 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V67" s="2"/>
+    </row>
+    <row r="68" spans="1:22" ht="15">
       <c r="A68" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B68" s="6">
         <f>D68*3.2808399</f>
-        <v>7.2539370188999994</v>
+        <v>8.8254593309999994</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D68" s="6">
-        <v>2.2109999999999999</v>
+        <v>2.69</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G68" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -3751,28 +4418,32 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V68" s="2"/>
+    </row>
+    <row r="69" spans="1:22" ht="15">
       <c r="A69" s="6" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B69" s="6">
-        <f>D69*3.2808399</f>
-        <v>5.085301845</v>
+        <f>D69*3.2808399^2</f>
+        <v>3099.7909312274305</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D69" s="6">
-        <v>1.55</v>
+        <f>261.8*1.1</f>
+        <v>287.98</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G69" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -3787,28 +4458,32 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V69" s="2"/>
+    </row>
+    <row r="70" spans="1:22" ht="15">
       <c r="A70" s="6" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B70" s="6">
-        <f>D70*3.2808399^2</f>
-        <v>115.92731554038275</v>
+        <f>D70*3.2808399</f>
+        <v>78.894357075300007</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D70" s="6">
-        <v>10.77</v>
+        <f>1.73*13.9</f>
+        <v>24.047000000000001</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G70" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -3823,28 +4498,31 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V70" s="2"/>
+    </row>
+    <row r="71" spans="1:22" ht="15">
       <c r="A71" s="6" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B71" s="6">
-        <f>D71*(3.2808399^3)</f>
-        <v>3566.7813551348709</v>
+        <f>D71*3.2808399</f>
+        <v>7.2539370188999994</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="D71" s="6">
-        <v>101</v>
+        <v>2.2109999999999999</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G71" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -3859,28 +4537,31 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V71" s="2"/>
+    </row>
+    <row r="72" spans="1:22" ht="15">
       <c r="A72" s="6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B72" s="6">
-        <v>420</v>
+        <f>D72*3.2808399</f>
+        <v>5.085301845</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="D72" s="6">
-        <f>B72*(0.3048^3)</f>
-        <v>11.893075568640002</v>
+        <v>1.55</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G72" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -3895,29 +4576,31 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V72" s="2"/>
+    </row>
+    <row r="73" spans="1:22" ht="15">
       <c r="A73" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B73" s="6">
-        <f>683-B72</f>
-        <v>263</v>
+        <f>D73*3.2808399^2</f>
+        <v>115.92731554038275</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="D73" s="6">
-        <f>B73*(0.3048^3)</f>
-        <v>7.4473306536960013</v>
+        <v>10.77</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G73" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -3932,27 +4615,31 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V73" s="2"/>
+    </row>
+    <row r="74" spans="1:22" ht="15">
       <c r="A74" s="6" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B74" s="6">
-        <v>1</v>
+        <f>D74*(3.2808399^3)</f>
+        <v>3566.7813551348709</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="D74" s="6">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G74" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -3967,28 +4654,31 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V74" s="2"/>
+    </row>
+    <row r="75" spans="1:22" ht="15">
       <c r="A75" s="6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B75" s="6">
-        <f>D75*3.2808399</f>
-        <v>128.37926528700001</v>
+        <v>420</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="D75" s="6">
-        <v>39.130000000000003</v>
+        <f>B75*(0.3048^3)</f>
+        <v>11.893075568640002</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G75" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -4003,15 +4693,32 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="2"/>
+      <c r="V75" s="2"/>
+    </row>
+    <row r="76" spans="1:22" ht="15">
+      <c r="A76" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="6">
+        <f>683-B75</f>
+        <v>263</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" s="6">
+        <f>B76*(0.3048^3)</f>
+        <v>7.4473306536960013</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -4026,27 +4733,31 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B77" s="8">
-        <v>1</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D77" s="8">
-        <v>1</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G77" s="2"/>
+      <c r="V76" s="2"/>
+    </row>
+    <row r="77" spans="1:22" ht="15">
+      <c r="A77" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" s="6">
+        <f>D77*3.2808399</f>
+        <v>128.37926528700001</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" s="6">
+        <v>39.130000000000003</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -4061,29 +4772,31 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B78" s="8">
-        <f>B49</f>
-        <v>55.511811108000011</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D78" s="8">
-        <f>B78*0.3048</f>
-        <v>16.920000025718405</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G78" s="2"/>
+      <c r="V77" s="2"/>
+    </row>
+    <row r="78" spans="1:22" ht="15">
+      <c r="A78" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" s="32">
+        <f>D78*L3</f>
+        <v>59.055149999999998</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D78" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="E78" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F78" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="G78" s="32" t="s">
+        <v>68</v>
+      </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -4098,27 +4811,31 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B79" s="8">
-        <v>1.25</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D79" s="8">
-        <v>1.25</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G79" s="2"/>
+      <c r="V78" s="2"/>
+    </row>
+    <row r="79" spans="1:22" ht="15">
+      <c r="A79" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B79" s="32">
+        <f>D79*L3</f>
+        <v>43.53151957</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D79" s="32">
+        <v>1.1056999999999999</v>
+      </c>
+      <c r="E79" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F79" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G79" s="32" t="s">
+        <v>68</v>
+      </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -4133,29 +4850,31 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B80" s="8">
-        <f>0.75*((1+2*B36)/(1+B36))*(B29*TAN(B35/B64))</f>
-        <v>0.36624777583129042</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D80" s="8">
-        <f>0.75*((1+2*D36)/(1+D36))*(D29*TAN(D35/D64))</f>
-        <v>0.36654298460467666</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G80" s="2"/>
+      <c r="V79" s="2"/>
+    </row>
+    <row r="80" spans="1:22" ht="15">
+      <c r="A80" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B80" s="31">
+        <f>D80*3.2808399</f>
+        <v>128.37926528700001</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" s="34">
+        <v>39.130000000000003</v>
+      </c>
+      <c r="E80" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F80" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -4170,27 +4889,29 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B81" s="8">
-        <v>1</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" s="8">
-        <v>1</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="G81" s="2"/>
+      <c r="V80" s="2"/>
+    </row>
+    <row r="81" spans="1:22" ht="15">
+      <c r="A81" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B81" s="31">
+        <f>D81*3.2808399</f>
+        <v>20.4330708972</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D81" s="35">
+        <v>6.2279999999999998</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -4205,27 +4926,29 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B82" s="8">
-        <v>1</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D82" s="8">
-        <v>1</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="G82" s="2"/>
+      <c r="V81" s="2"/>
+    </row>
+    <row r="82" spans="1:22" ht="15">
+      <c r="A82" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B82" s="31">
+        <f>D82*3.2808399</f>
+        <v>81.732283588800001</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" s="35">
+        <v>24.911999999999999</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -4240,29 +4963,30 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B83" s="8">
-        <f>0.3*B49</f>
-        <v>16.653543332400002</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D83" s="8">
-        <f>B83*0.3048</f>
-        <v>5.0760000077155212</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G83" s="2"/>
+      <c r="V82" s="2"/>
+    </row>
+    <row r="83" spans="1:22" ht="15">
+      <c r="A83" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" s="31">
+        <f>D83*3.2808399</f>
+        <v>2.5541338621499996</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" s="31">
+        <f>(D82-D81)/(25-1)</f>
+        <v>0.77849999999999986</v>
+      </c>
+      <c r="E83" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -4277,27 +5001,16 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B84" s="8">
-        <v>1</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D84" s="8">
-        <v>1</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G84" s="2"/>
+      <c r="V83" s="2"/>
+    </row>
+    <row r="84" spans="1:22" ht="15">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
@@ -4312,29 +5025,34 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V84" s="2"/>
+    </row>
+    <row r="85" spans="1:22" ht="15">
       <c r="A85" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B85" s="8">
         <v>1</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D85" s="8">
         <v>1</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G85" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+      <c r="I85" s="33" t="s">
+        <v>185</v>
+      </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -4347,15 +5065,30 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="2"/>
+      <c r="V85" s="2"/>
+    </row>
+    <row r="86" spans="1:22" ht="15">
+      <c r="A86" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D86" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
@@ -4370,29 +5103,32 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A87" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B87" s="9">
-        <f>D87</f>
-        <v>5.6999999999999993</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D87" s="9">
-        <f>3.8*1.5</f>
-        <v>5.6999999999999993</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G87" s="2"/>
+      <c r="V86" s="2"/>
+    </row>
+    <row r="87" spans="1:22" ht="15">
+      <c r="A87" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B87" s="8">
+        <f>0.75*((1+2*B38)/(1+B38))*(B31*TAN(B37/B67))</f>
+        <v>0.36624777583129042</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87" s="8">
+        <f>0.75*((1+2*D38)/(1+D38))*(D31*TAN(D37/D67))</f>
+        <v>30.6062638395139</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
@@ -4407,28 +5143,30 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A88" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B88" s="9">
-        <v>10</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="D88" s="9">
-        <f>B88*0.45359237*(1/0.3048)^3</f>
-        <v>160.18463373960137</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="G88" s="2"/>
+      <c r="V87" s="2"/>
+    </row>
+    <row r="88" spans="1:22" ht="15">
+      <c r="A88" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" s="8">
+        <v>1</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88" s="8">
+        <v>1</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
@@ -4443,28 +5181,30 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B89" s="9">
+      <c r="V88" s="2"/>
+    </row>
+    <row r="89" spans="1:22" ht="15">
+      <c r="A89" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89" s="8">
         <v>1</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D89" s="9">
-        <f>B89</f>
+      <c r="C89" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D89" s="8">
         <v>1</v>
       </c>
-      <c r="E89" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="G89" s="2"/>
+      <c r="E89" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
@@ -4479,27 +5219,30 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B90" s="9">
-        <v>2</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D90" s="9">
-        <v>2</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G90" s="2"/>
+      <c r="V89" s="2"/>
+    </row>
+    <row r="90" spans="1:22" ht="15">
+      <c r="A90" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B90" s="8">
+        <v>1</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90" s="8">
+        <v>1</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
@@ -4514,27 +5257,30 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B91" s="9">
-        <v>2903</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D91" s="9">
-        <v>10989</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="G91" s="2"/>
+      <c r="V90" s="2"/>
+    </row>
+    <row r="91" spans="1:22" ht="15">
+      <c r="A91" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B91" s="8">
+        <v>1</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D91" s="8">
+        <v>1</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
@@ -4549,27 +5295,30 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B92" s="9">
-        <v>2903</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D92" s="9">
-        <v>10989</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="G92" s="2"/>
+      <c r="V91" s="2"/>
+    </row>
+    <row r="92" spans="1:22" ht="15">
+      <c r="A92" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B92" s="23">
+        <v>1</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D92" s="23">
+        <v>1</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
@@ -4584,27 +5333,30 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B93" s="9">
-        <v>0</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D93" s="9">
-        <v>0</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G93" s="2"/>
+      <c r="V92" s="2"/>
+    </row>
+    <row r="93" spans="1:22" ht="15">
+      <c r="A93" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B93" s="23">
+        <v>1</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D93" s="23">
+        <v>1</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
@@ -4619,27 +5371,30 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B94" s="9">
-        <v>7</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D94" s="9">
-        <v>7</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G94" s="2"/>
+      <c r="V93" s="2"/>
+    </row>
+    <row r="94" spans="1:22" ht="15">
+      <c r="A94" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B94" s="23">
+        <v>1</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D94" s="23">
+        <v>1</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F94" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
@@ -4654,27 +5409,30 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B95" s="9">
-        <v>2</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D95" s="9">
-        <v>2</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G95" s="2"/>
+      <c r="V94" s="2"/>
+    </row>
+    <row r="95" spans="1:22" ht="15">
+      <c r="A95" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" s="23">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D95" s="23">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F95" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
@@ -4689,29 +5447,16 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B96" s="9">
-        <f>(((B29+B75)/2)^2 * (B24*B104^2)/4)*I4</f>
-        <v>13937.390521810168</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D96" s="9">
-        <f>B96*0.45359237*0.3048*0.3048</f>
-        <v>587.32317100943214</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G96" s="2"/>
+      <c r="V95" s="2"/>
+    </row>
+    <row r="96" spans="1:22" ht="15">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
@@ -4726,31 +5471,36 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V96" s="2"/>
+    </row>
+    <row r="97" spans="1:22" ht="15">
       <c r="A97" s="9" t="s">
         <v>202</v>
       </c>
       <c r="B97" s="9">
-        <f>2+3</f>
-        <v>5</v>
+        <f>D97</f>
+        <v>5.6999999999999993</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D97" s="9">
-        <f>2+3</f>
-        <v>5</v>
+        <f>3.8*1.5</f>
+        <v>5.6999999999999993</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F97" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G97" s="2"/>
+      <c r="G97" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
+      <c r="I97" s="9" t="s">
+        <v>204</v>
+      </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
@@ -4763,28 +5513,31 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V97" s="2"/>
+    </row>
+    <row r="98" spans="1:22" ht="15">
       <c r="A98" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B98" s="9">
-        <f>D98*3.2808399</f>
-        <v>128.37926528700001</v>
+        <v>10</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D98" s="10">
-        <v>39.130000000000003</v>
+        <v>206</v>
+      </c>
+      <c r="D98" s="9">
+        <f>B98*0.45359237*(1/0.3048)^3</f>
+        <v>160.18463373960137</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G98" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
@@ -4799,25 +5552,31 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V98" s="2"/>
+    </row>
+    <row r="99" spans="1:22" ht="15">
       <c r="A99" s="9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B99" s="9">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="D99" s="9">
-        <v>50</v>
+        <f>B99</f>
+        <v>1</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
@@ -4832,28 +5591,31 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V99" s="2"/>
+    </row>
+    <row r="100" spans="1:22" ht="15">
       <c r="A100" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B100" s="9">
-        <f>D100*3.2808399</f>
-        <v>150.688976607</v>
+        <v>2903</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="D100" s="9">
-        <v>45.93</v>
+        <v>10989</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="G100" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
@@ -4867,27 +5629,30 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V100" s="2"/>
+    </row>
+    <row r="101" spans="1:22" ht="15">
       <c r="A101" s="9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B101" s="9">
-        <v>2</v>
+        <v>2903</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="D101" s="9">
-        <v>2</v>
+        <v>10989</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G101" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
@@ -4902,30 +5667,31 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V101" s="2"/>
+    </row>
+    <row r="102" spans="1:22" ht="15">
       <c r="A102" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" s="9">
+        <v>0</v>
+      </c>
+      <c r="C102" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B102" s="9">
-        <f>B97+100</f>
-        <v>105</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="D102" s="9">
-        <f>D97+100</f>
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G102" s="2"/>
-      <c r="H102"/>
+        <v>217</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
@@ -4939,28 +5705,33 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V102" s="2"/>
+    </row>
+    <row r="103" spans="1:22" ht="15">
       <c r="A103" s="9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B103" s="9">
-        <v>3</v>
+        <f>(((B31+B77)/2)^2 * (B26*B106^2)/4)*L4</f>
+        <v>13937.390521810168</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="D103" s="9">
-        <v>3</v>
+        <f>B103*0.45359237*0.3048*0.3048</f>
+        <v>587.32317100943214</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G103" s="2"/>
-      <c r="H103"/>
+        <v>221</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
@@ -4974,27 +5745,28 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V103" s="2"/>
+    </row>
+    <row r="104" spans="1:22" ht="15">
       <c r="A104" s="9" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B104" s="9">
-        <v>0.44</v>
+        <v>50</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="D104" s="9">
-        <v>0.44</v>
+        <v>50</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="G104" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
@@ -5009,29 +5781,32 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V104" s="2"/>
+    </row>
+    <row r="105" spans="1:22" ht="15">
       <c r="A105" s="9" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B105" s="9">
-        <v>0.36</v>
+        <f>D105*3.2808399</f>
+        <v>150.688976607</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D105" s="9">
-        <v>0.36</v>
+        <v>45.93</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="G105" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
@@ -5044,27 +5819,30 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V105" s="2"/>
+    </row>
+    <row r="106" spans="1:22" ht="15">
       <c r="A106" s="9" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B106" s="9">
-        <v>0.24</v>
+        <v>0.44</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D106" s="9">
-        <v>0.24</v>
+        <v>0.44</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="G106" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
@@ -5079,15 +5857,30 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
       <c r="U106" s="2"/>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="2"/>
+      <c r="V106" s="2"/>
+    </row>
+    <row r="107" spans="1:22" ht="15">
+      <c r="A107" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B107" s="9">
+        <v>0.36</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107" s="9">
+        <v>0.36</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
@@ -5102,9 +5895,30 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="G108" s="2"/>
+      <c r="V107" s="2"/>
+    </row>
+    <row r="108" spans="1:22" ht="15">
+      <c r="A108" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D108" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
@@ -5119,9 +5933,32 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="G109" s="2"/>
+      <c r="V108" s="2"/>
+    </row>
+    <row r="109" spans="1:22" ht="15">
+      <c r="A109" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B109" s="36">
+        <f>B56*1.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="C109" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D109" s="36">
+        <f>D56*1.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="E109" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F109" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="G109" s="36" t="s">
+        <v>68</v>
+      </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
@@ -5136,9 +5973,32 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="G110" s="2"/>
+      <c r="V109" s="2"/>
+    </row>
+    <row r="110" spans="1:22" ht="15">
+      <c r="A110" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B110" s="40">
+        <f>B77</f>
+        <v>128.37926528700001</v>
+      </c>
+      <c r="C110" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D110" s="40">
+        <f>B110*0.3048</f>
+        <v>39.130000059477602</v>
+      </c>
+      <c r="E110" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F110" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="G110" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
@@ -5153,9 +6013,32 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="G111" s="2"/>
+      <c r="V110" s="2"/>
+    </row>
+    <row r="111" spans="1:22" ht="15">
+      <c r="A111" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="B111" s="40">
+        <f>0.3*B51</f>
+        <v>16.653543332400002</v>
+      </c>
+      <c r="C111" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D111" s="40">
+        <f>B111*0.3048</f>
+        <v>5.0760000077155212</v>
+      </c>
+      <c r="E111" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F111" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="G111" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
@@ -5170,9 +6053,16 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="G112" s="2"/>
+      <c r="V111" s="2"/>
+    </row>
+    <row r="112" spans="1:22" ht="15">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
@@ -5187,447 +6077,1414 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
-    </row>
+      <c r="V112" s="2"/>
+    </row>
+    <row r="113" spans="8:22" ht="15">
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+    </row>
+    <row r="114" spans="8:22" ht="15">
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2"/>
+      <c r="V114" s="2"/>
+    </row>
+    <row r="115" spans="8:22" ht="15"/>
+    <row r="116" spans="8:22" ht="15"/>
+    <row r="117" spans="8:22" ht="15"/>
+    <row r="118" spans="8:22" ht="15"/>
+    <row r="119" spans="8:22" ht="15"/>
+    <row r="120" spans="8:22" ht="15"/>
+    <row r="121" spans="8:22" ht="15"/>
+    <row r="122" spans="8:22" ht="15"/>
+    <row r="123" spans="8:22" ht="15"/>
+    <row r="124" spans="8:22" ht="15"/>
+    <row r="125" spans="8:22" ht="15"/>
+    <row r="126" spans="8:22" ht="15"/>
+    <row r="127" spans="8:22" ht="15"/>
+    <row r="128" spans="8:22" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D834D8-7F09-4695-A376-A2AD24D2454E}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="46.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7">
+        <f>data_for_weight!D51</f>
+        <v>16.920000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8">
+        <f>data_for_weight!D34</f>
+        <v>77.39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9">
+        <f>data_for_weight!D46</f>
+        <v>3.4020000000000001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11">
+        <f>SQRT(1-B12^2)</f>
+        <v>0.62577951388648057</v>
+      </c>
+      <c r="G11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12">
+        <f>data_for_weight!B26</f>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <f>data_for_weight!B28</f>
+        <v>8.8495787569453412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14">
+        <f>B11*B13</f>
+        <v>5.537885092621381</v>
+      </c>
+      <c r="F14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15">
+        <f>data_for_weight!D37</f>
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16">
+        <f>TAN(B15)</f>
+        <v>-5.0243747286846743</v>
+      </c>
+      <c r="F16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17">
+        <f>ATAN(B16/B11)</f>
+        <v>-1.4468856798960612</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17">
+        <f>B17*180/PI()</f>
+        <v>-82.900442895960936</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18">
+        <v>0.35</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19">
+        <v>2.6949999999999998</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" t="s">
+        <v>263</v>
+      </c>
+      <c r="G19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20">
+        <v>2.6949999999999998</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" t="s">
+        <v>263</v>
+      </c>
+      <c r="G21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B22">
+        <f>B8/B23</f>
+        <v>2.9572029040886512</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
+        <v>263</v>
+      </c>
+      <c r="G22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23">
+        <f>data_for_weight!D31</f>
+        <v>26.17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24">
+        <f>data_for_weight!D38</f>
+        <v>0.15944103612815269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B25">
+        <v>-2.5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>273</v>
+      </c>
+      <c r="G25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>275</v>
+      </c>
+      <c r="B26">
+        <f>data_for_weight!D72</f>
+        <v>1.55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B27">
+        <v>11.9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B28">
+        <v>0.95</v>
+      </c>
+      <c r="F28" t="s">
+        <v>280</v>
+      </c>
+      <c r="G28" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29">
+        <f>B8+14.02</f>
+        <v>91.41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>283</v>
+      </c>
+      <c r="B30">
+        <f>B7/(B23/2)</f>
+        <v>1.293083683607184</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>285</v>
+      </c>
+      <c r="B31">
+        <f>5.03/(B23/2)</f>
+        <v>0.38440962934658007</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32019386-FF57-479B-BD1A-28AFAEB53A48}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="52.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <f>data_for_weight!B19</f>
+        <v>16967.056538814799</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4">
+        <f>-0.35*B3^0.33333333</f>
+        <v>-8.9936682965641719</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="38">
+        <f>($B$20*B11*$B$19)/$B$21</f>
+        <v>18502336.216891974</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="38">
+        <f>($B$20*B12*$B$19)/$B$21</f>
+        <v>14232566.320686134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <f>data_for_weight!D25</f>
+        <v>64.819999944000003</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <f>data_for_weight!D22</f>
+        <v>49.861538418461542</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B13">
+        <f>B11/B15</f>
+        <v>0.19049989829838218</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B14">
+        <f>B12/B15</f>
+        <v>0.14653838330644783</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B15">
+        <f>SQRT(B18*B17*B16)</f>
+        <v>340.26264855255562</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16">
+        <v>288.14999999999998</v>
+      </c>
+      <c r="C16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17">
+        <v>287</v>
+      </c>
+      <c r="C17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18">
+        <v>1.4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19">
+        <f>data_for_weight!D46</f>
+        <v>3.4020000000000001</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>308</v>
+      </c>
+      <c r="B20">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B21" s="37">
+        <f>1.46*10^-5</f>
+        <v>1.4600000000000001E-5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>310</v>
+      </c>
+      <c r="E21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>312</v>
+      </c>
+      <c r="B22" t="s">
+        <v>313</v>
+      </c>
+      <c r="E22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>315</v>
+      </c>
+      <c r="B23">
+        <v>47.3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24">
+        <v>63.5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B25">
+        <v>1.3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B26">
+        <v>0.3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>320</v>
+      </c>
+      <c r="E26" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27">
+        <v>-15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28">
+        <f>data_for_weight!B37</f>
+        <v>0.46949356878647464</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29">
+        <f>data_for_weight!D34</f>
+        <v>77.39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>327</v>
+      </c>
+      <c r="B30">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>279</v>
+      </c>
+      <c r="B31">
+        <v>0.95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32">
+        <f>data_for_weight!B28</f>
+        <v>8.8495787569453412</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>329</v>
+      </c>
+      <c r="B33">
+        <f>SQRT(1-B14^2)</f>
+        <v>0.9892049849338268</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1" location="polars" xr:uid="{0C044B45-7202-4B1F-8237-1A09EA5C55E0}"/>
+    <hyperlink ref="D30" r:id="rId2" location="polars" xr:uid="{106F4A22-553B-4296-93D8-B0A721EBEAD1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0090C669-98A5-4C53-9280-2811B9227C7D}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="21">
+    <row r="1" spans="1:9">
+      <c r="A1" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="18">
         <f>$H$2+(C2*$H$3)</f>
         <v>20.751000000000001</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="18">
         <v>0.5</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="G2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H2">
-        <f>data_for_weight!D46</f>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="G2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H2" s="1">
+        <f>data_for_weight!D48</f>
         <v>19.05</v>
       </c>
-      <c r="I2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" s="19">
+      <c r="I2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="18">
         <v>37.4</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <f t="shared" ref="C3:C10" si="0">(B3-$H$2)/$H$3</f>
         <v>5.3938859494415041</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="G3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <f>data_for_weight!D44</f>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="G3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="1">
+        <f>data_for_weight!D46</f>
         <v>3.4020000000000001</v>
       </c>
-      <c r="I3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" s="19">
+      <c r="I3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" s="18">
         <v>35.700000000000003</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <f t="shared" si="0"/>
         <v>4.8941798941798949</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="19">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" s="18">
         <v>17.100000000000001</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <f t="shared" si="0"/>
         <v>-0.57319223985890633</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B6" s="23">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6" s="19">
         <v>22.1</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
         <v>0.8965314520870078</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" s="19">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="B7" s="18">
         <v>2.0760000000000001</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <f t="shared" si="0"/>
         <v>-4.9894179894179889</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="B8" s="19">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" s="18">
         <f>B22</f>
         <v>30.1</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <f t="shared" si="0"/>
         <v>3.2480893592004705</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="B9" s="19">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="18">
         <v>2.4220000000000002</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <f t="shared" si="0"/>
         <v>-4.8877131099353317</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="19">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" s="18">
         <f>B8</f>
         <v>30.1</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <f t="shared" si="0"/>
         <v>3.2480893592004705</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="B11" s="21">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="B11" s="18">
         <f>$H$2+(C11*$H$3)</f>
         <v>23.132400000000001</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <v>1.2</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="21">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="18">
         <f>$H$2+(C12*$H$3)</f>
         <v>20.751000000000001</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <f>C2</f>
         <v>0.5</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="B13" s="19">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="18">
         <v>31.49</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <f t="shared" ref="C13:C18" si="1">(B13-$H$2)/$H$3</f>
         <v>3.6566725455614337</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="B14" s="19">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" s="18">
         <f>B9</f>
         <v>2.4220000000000002</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <f t="shared" si="1"/>
         <v>-4.8877131099353317</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B15" s="19">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15" s="18">
         <f>B9</f>
         <v>2.4220000000000002</v>
       </c>
-      <c r="C15" s="19">
-        <f t="shared" si="1"/>
+      <c r="C15" s="18">
+        <f>(B15-$H$2)/$H$3</f>
         <v>-4.8877131099353317</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="B16" s="19">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16" s="18">
         <f>B5</f>
         <v>17.100000000000001</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <f t="shared" si="1"/>
         <v>-0.57319223985890633</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="B17" s="19">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="B17" s="18">
         <v>5.1029999999999998</v>
       </c>
-      <c r="C17" s="19">
-        <f t="shared" si="1"/>
+      <c r="C17" s="18">
+        <f>(B17-$H$2)/$H$3</f>
         <v>-4.0996472663139327</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="B18" s="19">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" s="18">
         <f>B5</f>
         <v>17.100000000000001</v>
       </c>
-      <c r="C18" s="19">
-        <f t="shared" si="1"/>
+      <c r="C18" s="18">
+        <f>(B18-$H$2)/$H$3</f>
         <v>-0.57319223985890633</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="B19" s="21">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="B19" s="18">
         <f>$H$2+(C19*$H$3)</f>
         <v>20.751000000000001</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="18">
         <f>C2</f>
         <v>0.5</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" s="21">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="B20" s="18">
         <f>$H$2+(C20*$H$3)</f>
         <v>20.751000000000001</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="18">
         <f>C19</f>
         <v>0.5</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="B21" s="19">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B21" s="18">
         <f>B12</f>
         <v>20.751000000000001</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <f>C20</f>
         <v>0.5</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="19">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="18">
         <v>30.1</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <f>(B22-$H$2)/$H$3</f>
         <v>3.2480893592004705</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="B23" s="19">
-        <v>5.16</v>
-      </c>
-      <c r="C23" s="19">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="B23" s="18">
+        <v>8</v>
+      </c>
+      <c r="C23" s="18">
         <f>(B23-$H$2)/$H$3</f>
-        <v>-4.0828924162257492</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="B24" s="22">
+        <v>-3.2480893592004705</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="B24" s="18">
         <f>B5</f>
         <v>17.100000000000001</v>
       </c>
-      <c r="C24" s="22">
-        <v>-4.9894179889999997</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="19">
+      <c r="C24" s="18">
+        <f>(B24-$H$2)/$H$3</f>
+        <v>-0.57319223985890633</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="18">
         <v>11.42</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="18">
         <f>(B25-$H$2)/$H$3</f>
         <v>-2.2427983539094654</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="19">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="18">
         <v>28.2</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <f>(B26-$H$2)/$H$3</f>
         <v>2.6895943562610225</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="B27" s="18">
+        <f>data_for_weight!D81</f>
+        <v>6.2279999999999998</v>
+      </c>
+      <c r="C27" s="18">
+        <f>(B27-$H$2)/$H$3</f>
+        <v>-3.7689594356261025</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="B28" s="18">
+        <f>data_for_weight!D82</f>
+        <v>24.911999999999999</v>
+      </c>
+      <c r="C28" s="18">
+        <f>(B28-$H$2)/$H$3</f>
+        <v>1.7231040564373892</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" ht="15">
+      <c r="A29" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="18">
+        <f>data_for_weight!D83</f>
+        <v>0.77849999999999986</v>
+      </c>
+      <c r="C29" s="18">
+        <f>B29/H3</f>
+        <v>0.22883597883597878</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="B30" s="18">
+        <f>$H$2+(C30*$H$3)</f>
+        <v>20.751000000000001</v>
+      </c>
+      <c r="C30" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
